--- a/Pandas/rs.xlsx
+++ b/Pandas/rs.xlsx
@@ -20,12 +20,33 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2" uniqueCount="2">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="10" uniqueCount="9">
   <si>
     <t xml:space="preserve">Ls</t>
   </si>
   <si>
     <t xml:space="preserve">Vim</t>
+  </si>
+  <si>
+    <t xml:space="preserve">white</t>
+  </si>
+  <si>
+    <t xml:space="preserve">smth</t>
+  </si>
+  <si>
+    <t xml:space="preserve">end</t>
+  </si>
+  <si>
+    <t xml:space="preserve">awfaw</t>
+  </si>
+  <si>
+    <t xml:space="preserve">test</t>
+  </si>
+  <si>
+    <t xml:space="preserve">aw</t>
+  </si>
+  <si>
+    <t xml:space="preserve">aad</t>
   </si>
 </sst>
 </file>
@@ -40,6 +61,7 @@
       <sz val="10"/>
       <name val="Arial"/>
       <family val="2"/>
+      <charset val="1"/>
     </font>
     <font>
       <sz val="10"/>
@@ -121,10 +143,10 @@
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="A1:B4"/>
+  <dimension ref="A1:G12"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="B5" activeCellId="0" sqref="B5"/>
+      <selection pane="topLeft" activeCell="G10" activeCellId="0" sqref="G10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -139,6 +161,21 @@
       <c r="B1" s="0" t="s">
         <v>1</v>
       </c>
+      <c r="C1" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="D1" s="0" t="s">
+        <v>2</v>
+      </c>
+      <c r="E1" s="0" t="n">
+        <v>34</v>
+      </c>
+      <c r="F1" s="0" t="s">
+        <v>3</v>
+      </c>
+      <c r="G1" s="0" t="s">
+        <v>4</v>
+      </c>
     </row>
     <row r="2" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A2" s="0" t="n">
@@ -147,6 +184,18 @@
       <c r="B2" s="0" t="n">
         <v>2</v>
       </c>
+      <c r="C2" s="0" t="s">
+        <v>5</v>
+      </c>
+      <c r="D2" s="0" t="s">
+        <v>6</v>
+      </c>
+      <c r="E2" s="0" t="n">
+        <v>22</v>
+      </c>
+      <c r="G2" s="0" t="n">
+        <v>1</v>
+      </c>
     </row>
     <row r="3" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A3" s="0" t="n">
@@ -154,6 +203,15 @@
       </c>
       <c r="B3" s="0" t="n">
         <v>3</v>
+      </c>
+      <c r="C3" s="0" t="s">
+        <v>5</v>
+      </c>
+      <c r="D3" s="0" t="s">
+        <v>7</v>
+      </c>
+      <c r="E3" s="0" t="n">
+        <v>34</v>
       </c>
     </row>
     <row r="4" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -162,6 +220,41 @@
       </c>
       <c r="B4" s="0" t="n">
         <v>4</v>
+      </c>
+      <c r="C4" s="0" t="s">
+        <v>8</v>
+      </c>
+      <c r="D4" s="0" t="n">
+        <v>2</v>
+      </c>
+      <c r="E4" s="0" t="n">
+        <v>33</v>
+      </c>
+      <c r="G4" s="0" t="n">
+        <v>500</v>
+      </c>
+    </row>
+    <row r="6" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="E6" s="0" t="n">
+        <v>111</v>
+      </c>
+    </row>
+    <row r="8" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="E8" s="0" t="n">
+        <v>23</v>
+      </c>
+      <c r="G8" s="0" t="n">
+        <v>333</v>
+      </c>
+    </row>
+    <row r="10" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="G10" s="0" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="12" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="G12" s="0" t="n">
+        <v>403</v>
       </c>
     </row>
   </sheetData>
